--- a/CourseworkPartOne/CompiledResults.xlsx
+++ b/CourseworkPartOne/CompiledResults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conner\Documents\GitHub\ConcurrentAndParallelSystems\CourseworkPartOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40167111\Documents\GitHub\ConcurrentAndParallelSystems\CourseworkPartOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t xml:space="preserve">Serial </t>
   </si>
@@ -85,11 +86,23 @@
   <si>
     <t>Time Taken (s)</t>
   </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>C++11 threading</t>
+  </si>
+  <si>
+    <t>Speed up</t>
+  </si>
+  <si>
+    <t>Efficency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +164,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -281,23 +294,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.573000000000013</c:v>
+                  <c:v>12.305690000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.447459999999989</c:v>
+                  <c:v>24.441839999999988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.806550000000001</c:v>
+                  <c:v>37.746549999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49.447309999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.765770000000003</c:v>
+                  <c:v>61.74577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D7B-49D9-98CB-E9499B89A4D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -370,6 +388,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D7B-49D9-98CB-E9499B89A4D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -425,10 +448,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.0732499999999998</c:v>
+                  <c:v>3.0903279999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8080300000000022</c:v>
+                  <c:v>5.9212099999999976</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.4887599999999974</c:v>
@@ -442,6 +465,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D7B-49D9-98CB-E9499B89A4D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -464,6 +492,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1572,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,9 +1636,11 @@
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1652,15 +1707,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13.573</v>
+        <v>12.292</v>
       </c>
       <c r="B4">
-        <v>25.629000000000001</v>
+        <v>24.629000000000001</v>
       </c>
       <c r="C4">
-        <v>38.432000000000002</v>
+        <v>36.432000000000002</v>
       </c>
       <c r="D4">
         <v>49.356000000000002</v>
@@ -1701,13 +1756,16 @@
       <c r="T4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13.573</v>
+        <v>12.237</v>
       </c>
       <c r="B5">
-        <v>25.567</v>
+        <v>24.567</v>
       </c>
       <c r="C5">
         <v>38.25</v>
@@ -1737,7 +1795,7 @@
         <v>3.0870000000000002</v>
       </c>
       <c r="N5">
-        <v>5.7839999999999998</v>
+        <v>5.8940000000000001</v>
       </c>
       <c r="O5">
         <v>8.4689999999999994</v>
@@ -1753,7 +1811,7 @@
       </c>
       <c r="U5">
         <f>AVERAGE(A4:A104)</f>
-        <v>13.573000000000013</v>
+        <v>12.305690000000002</v>
       </c>
       <c r="V5">
         <f>AVERAGE(G4:G104)</f>
@@ -1761,18 +1819,24 @@
       </c>
       <c r="W5">
         <f>AVERAGE(M4:M104)</f>
-        <v>3.0732499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.0903279999999995</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13.573</v>
+        <v>12.314</v>
       </c>
       <c r="B6">
-        <v>25.582999999999998</v>
+        <v>24.582999999999998</v>
       </c>
       <c r="C6">
-        <v>37.863</v>
+        <v>35.863</v>
       </c>
       <c r="D6">
         <v>49.311</v>
@@ -1799,7 +1863,7 @@
         <v>3.1080000000000001</v>
       </c>
       <c r="N6">
-        <v>5.7990000000000004</v>
+        <v>5.899</v>
       </c>
       <c r="O6">
         <v>8.5090000000000003</v>
@@ -1815,7 +1879,7 @@
       </c>
       <c r="U6">
         <f>MAX(A4:A104)</f>
-        <v>13.573</v>
+        <v>12.683</v>
       </c>
       <c r="V6">
         <f>MAX(G4:G104)</f>
@@ -1823,18 +1887,29 @@
       </c>
       <c r="W6">
         <f>MAX(M4:M104)</f>
-        <v>3.3029999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.766</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6">
+        <f>U5/V5</f>
+        <v>3.6735376826217525</v>
+      </c>
+      <c r="AD6">
+        <f>U5/W5</f>
+        <v>3.9820012632963246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13.573</v>
+        <v>12.144</v>
       </c>
       <c r="B7">
-        <v>25.488</v>
+        <v>24.488</v>
       </c>
       <c r="C7">
-        <v>37.343000000000004</v>
+        <v>35.343000000000004</v>
       </c>
       <c r="D7">
         <v>49.363</v>
@@ -1861,7 +1936,7 @@
         <v>3.0779999999999998</v>
       </c>
       <c r="N7">
-        <v>5.798</v>
+        <v>5.899</v>
       </c>
       <c r="O7">
         <v>8.5129999999999999</v>
@@ -1877,7 +1952,7 @@
       </c>
       <c r="U7">
         <f>MIN(A4:A104)</f>
-        <v>13.573</v>
+        <v>12.031000000000001</v>
       </c>
       <c r="V7">
         <f>MIN(G4:G104)</f>
@@ -1887,13 +1962,24 @@
         <f>MIN(M4:M104)</f>
         <v>3.0419999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7">
+        <f>U9/V9</f>
+        <v>3.7378216440895167</v>
+      </c>
+      <c r="AD7">
+        <f>U9/W9</f>
+        <v>4.1278454910398379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13.573</v>
+        <v>12.161</v>
       </c>
       <c r="B8">
-        <v>25.532</v>
+        <v>24.532</v>
       </c>
       <c r="C8">
         <v>37.369</v>
@@ -1902,7 +1988,7 @@
         <v>49.359000000000002</v>
       </c>
       <c r="E8">
-        <v>61.679000000000002</v>
+        <v>59.679000000000002</v>
       </c>
       <c r="G8">
         <v>3.3359999999999999</v>
@@ -1923,7 +2009,7 @@
         <v>3.1429999999999998</v>
       </c>
       <c r="N8">
-        <v>5.8019999999999996</v>
+        <v>5.9020000000000001</v>
       </c>
       <c r="O8">
         <v>8.5190000000000001</v>
@@ -1937,13 +2023,24 @@
       <c r="T8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8">
+        <f>U13/V13</f>
+        <v>3.916893054376632</v>
+      </c>
+      <c r="AD8">
+        <f>U13/W13</f>
+        <v>4.446650629773961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13.573</v>
+        <v>12.241</v>
       </c>
       <c r="B9">
-        <v>25.509</v>
+        <v>24.509</v>
       </c>
       <c r="C9">
         <v>38.283000000000001</v>
@@ -1973,7 +2070,7 @@
         <v>3.0979999999999999</v>
       </c>
       <c r="N9">
-        <v>5.7949999999999999</v>
+        <v>5.8949999999999996</v>
       </c>
       <c r="O9">
         <v>8.5120000000000005</v>
@@ -1989,7 +2086,7 @@
       </c>
       <c r="U9">
         <f>AVERAGE(B4:B104)</f>
-        <v>25.447459999999989</v>
+        <v>24.441839999999988</v>
       </c>
       <c r="V9">
         <f>AVERAGE(H4:H104)</f>
@@ -1997,15 +2094,26 @@
       </c>
       <c r="W9">
         <f>AVERAGE(N4:N104)</f>
-        <v>5.8080300000000022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.9212099999999976</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC9">
+        <f>U17/V17</f>
+        <v>3.8460403463413573</v>
+      </c>
+      <c r="AD9">
+        <f>U17/W17</f>
+        <v>4.327454268266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13.573</v>
+        <v>12.212999999999999</v>
       </c>
       <c r="B10">
-        <v>25.536999999999999</v>
+        <v>24.536999999999999</v>
       </c>
       <c r="C10">
         <v>37.493000000000002</v>
@@ -2035,7 +2143,7 @@
         <v>3.0640000000000001</v>
       </c>
       <c r="N10">
-        <v>5.7930000000000001</v>
+        <v>5.8929999999999998</v>
       </c>
       <c r="O10">
         <v>8.4949999999999992</v>
@@ -2051,7 +2159,7 @@
       </c>
       <c r="U10">
         <f>MAX(B4:B104)</f>
-        <v>25.629000000000001</v>
+        <v>24.629000000000001</v>
       </c>
       <c r="V10">
         <f>MAX(H4:H104)</f>
@@ -2061,13 +2169,24 @@
         <f>MAX(N4:N104)</f>
         <v>6.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10">
+        <f>U21/V21</f>
+        <v>3.8715746757216496</v>
+      </c>
+      <c r="AD10">
+        <f>U21/W21</f>
+        <v>4.4004796316884756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13.573</v>
+        <v>12.154999999999999</v>
       </c>
       <c r="B11">
-        <v>25.542999999999999</v>
+        <v>24.542999999999999</v>
       </c>
       <c r="C11">
         <v>37.371000000000002</v>
@@ -2097,7 +2216,7 @@
         <v>3.0630000000000002</v>
       </c>
       <c r="N11">
-        <v>5.8040000000000003</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="O11">
         <v>8.51</v>
@@ -2113,7 +2232,7 @@
       </c>
       <c r="U11">
         <f>MIN(B4:B104)</f>
-        <v>25.094999999999999</v>
+        <v>24.094999999999999</v>
       </c>
       <c r="V11">
         <f>MIN(H4:H104)</f>
@@ -2121,15 +2240,15 @@
       </c>
       <c r="W11">
         <f>MIN(N4:N104)</f>
-        <v>5.7560000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.8559999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13.573</v>
+        <v>12.237</v>
       </c>
       <c r="B12">
-        <v>25.488</v>
+        <v>24.488</v>
       </c>
       <c r="C12">
         <v>38.134</v>
@@ -2159,7 +2278,7 @@
         <v>3.0830000000000002</v>
       </c>
       <c r="N12">
-        <v>5.7880000000000003</v>
+        <v>5.899</v>
       </c>
       <c r="O12">
         <v>8.5229999999999997</v>
@@ -2173,13 +2292,16 @@
       <c r="T12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13.573</v>
+        <v>12.177</v>
       </c>
       <c r="B13">
-        <v>25.501999999999999</v>
+        <v>24.501999999999999</v>
       </c>
       <c r="C13">
         <v>37.914000000000001</v>
@@ -2209,7 +2331,7 @@
         <v>3.056</v>
       </c>
       <c r="N13">
-        <v>5.8209999999999997</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="O13">
         <v>8.4719999999999995</v>
@@ -2225,7 +2347,7 @@
       </c>
       <c r="U13">
         <f>AVERAGE(C4:C104)</f>
-        <v>37.806550000000001</v>
+        <v>37.746549999999999</v>
       </c>
       <c r="V13">
         <f>AVERAGE(I4:I104)</f>
@@ -2235,13 +2357,19 @@
         <f>AVERAGE(O4:O104)</f>
         <v>8.4887599999999974</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13.573</v>
+        <v>12.269</v>
       </c>
       <c r="B14">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="C14">
         <v>37.289000000000001</v>
@@ -2271,7 +2399,7 @@
         <v>3.0830000000000002</v>
       </c>
       <c r="N14">
-        <v>5.7729999999999997</v>
+        <v>5.883</v>
       </c>
       <c r="O14">
         <v>8.5050000000000008</v>
@@ -2297,13 +2425,24 @@
         <f>MAX(O4:O104)</f>
         <v>8.68</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14">
+        <f>AC6/4</f>
+        <v>0.91838442065543813</v>
+      </c>
+      <c r="AD14">
+        <f>AD6/4</f>
+        <v>0.99550031582408116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.573</v>
+        <v>12.048999999999999</v>
       </c>
       <c r="B15">
-        <v>25.48</v>
+        <v>24.48</v>
       </c>
       <c r="C15">
         <v>37.481999999999999</v>
@@ -2333,7 +2472,7 @@
         <v>3.05</v>
       </c>
       <c r="N15">
-        <v>5.84</v>
+        <v>5.94</v>
       </c>
       <c r="O15">
         <v>8.5030000000000001</v>
@@ -2349,7 +2488,7 @@
       </c>
       <c r="U15">
         <f>MIN(C4:C104)</f>
-        <v>37.255000000000003</v>
+        <v>35.343000000000004</v>
       </c>
       <c r="V15">
         <f>MIN(I4:I104)</f>
@@ -2359,13 +2498,24 @@
         <f>MIN(O4:O104)</f>
         <v>8.4420000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC15">
+        <f>AC7/4</f>
+        <v>0.93445541102237917</v>
+      </c>
+      <c r="AD15">
+        <f>AD7/4</f>
+        <v>1.0319613727599595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13.573</v>
+        <v>12.118</v>
       </c>
       <c r="B16">
-        <v>25.495999999999999</v>
+        <v>24.495999999999999</v>
       </c>
       <c r="C16">
         <v>43.994</v>
@@ -2395,7 +2545,7 @@
         <v>3.0449999999999999</v>
       </c>
       <c r="N16">
-        <v>5.7750000000000004</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="O16">
         <v>8.5609999999999999</v>
@@ -2409,13 +2559,24 @@
       <c r="T16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC16">
+        <f>AC8/4</f>
+        <v>0.97922326359415801</v>
+      </c>
+      <c r="AD16">
+        <f>AD8/4</f>
+        <v>1.1116626574434902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13.573</v>
+        <v>12.163</v>
       </c>
       <c r="B17">
-        <v>25.504000000000001</v>
+        <v>24.504000000000001</v>
       </c>
       <c r="C17">
         <v>39.654000000000003</v>
@@ -2445,7 +2606,7 @@
         <v>3.0539999999999998</v>
       </c>
       <c r="N17">
-        <v>5.8120000000000003</v>
+        <v>5.9119999999999999</v>
       </c>
       <c r="O17">
         <v>8.5169999999999995</v>
@@ -2471,13 +2632,24 @@
         <f>AVERAGE(P4:P104)</f>
         <v>11.426420000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC17">
+        <f>AC9/4</f>
+        <v>0.96151008658533932</v>
+      </c>
+      <c r="AD17">
+        <f>AD9/4</f>
+        <v>1.0818635670665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13.573</v>
+        <v>12.063000000000001</v>
       </c>
       <c r="B18">
-        <v>25.483000000000001</v>
+        <v>24.483000000000001</v>
       </c>
       <c r="C18">
         <v>39.008000000000003</v>
@@ -2507,7 +2679,7 @@
         <v>3.0739999999999998</v>
       </c>
       <c r="N18">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="O18">
         <v>8.5030000000000001</v>
@@ -2533,13 +2705,24 @@
         <f>MAX(P4:P104)</f>
         <v>11.526</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC18">
+        <f>AC10/4</f>
+        <v>0.9678936689304124</v>
+      </c>
+      <c r="AD18">
+        <f>AD10/4</f>
+        <v>1.1001199079221189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13.573</v>
+        <v>12.045</v>
       </c>
       <c r="B19">
-        <v>25.48</v>
+        <v>24.48</v>
       </c>
       <c r="C19">
         <v>38.445999999999998</v>
@@ -2569,7 +2752,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="N19">
-        <v>5.7910000000000004</v>
+        <v>5.891</v>
       </c>
       <c r="O19">
         <v>8.4770000000000003</v>
@@ -2596,12 +2779,12 @@
         <v>11.385999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13.573</v>
+        <v>12.037000000000001</v>
       </c>
       <c r="B20">
-        <v>25.474</v>
+        <v>24.474</v>
       </c>
       <c r="C20">
         <v>38.173000000000002</v>
@@ -2631,7 +2814,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="N20">
-        <v>5.7839999999999998</v>
+        <v>5.8940000000000001</v>
       </c>
       <c r="O20">
         <v>8.4879999999999995</v>
@@ -2646,12 +2829,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13.573</v>
+        <v>12.034000000000001</v>
       </c>
       <c r="B21">
-        <v>25.466000000000001</v>
+        <v>24.466000000000001</v>
       </c>
       <c r="C21">
         <v>38.340000000000003</v>
@@ -2681,7 +2864,7 @@
         <v>3.0609999999999999</v>
       </c>
       <c r="N21">
-        <v>5.8170000000000002</v>
+        <v>5.9180000000000001</v>
       </c>
       <c r="O21">
         <v>8.5289999999999999</v>
@@ -2697,7 +2880,7 @@
       </c>
       <c r="U21">
         <f>AVERAGE(E4:E104)</f>
-        <v>61.765770000000003</v>
+        <v>61.74577</v>
       </c>
       <c r="V21">
         <f>AVERAGE(K4:K104)</f>
@@ -2708,12 +2891,12 @@
         <v>14.031599999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13.573</v>
+        <v>12.057</v>
       </c>
       <c r="B22">
-        <v>25.477</v>
+        <v>24.477</v>
       </c>
       <c r="C22">
         <v>38.121000000000002</v>
@@ -2743,7 +2926,7 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="N22">
-        <v>5.8289999999999997</v>
+        <v>5.9290000000000003</v>
       </c>
       <c r="O22">
         <v>8.4960000000000004</v>
@@ -2770,12 +2953,12 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13.573</v>
+        <v>12.055</v>
       </c>
       <c r="B23">
-        <v>25.475999999999999</v>
+        <v>24.475999999999999</v>
       </c>
       <c r="C23">
         <v>38.216000000000001</v>
@@ -2805,7 +2988,7 @@
         <v>3.0619999999999998</v>
       </c>
       <c r="N23">
-        <v>5.8220000000000001</v>
+        <v>5.9219999999999997</v>
       </c>
       <c r="O23">
         <v>8.5210000000000008</v>
@@ -2821,7 +3004,7 @@
       </c>
       <c r="U23">
         <f>MIN(E4:E104)</f>
-        <v>61.65</v>
+        <v>59.679000000000002</v>
       </c>
       <c r="V23">
         <f>MIN(K4:K104)</f>
@@ -2832,12 +3015,12 @@
         <v>13.935</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13.573</v>
+        <v>12.079000000000001</v>
       </c>
       <c r="B24">
-        <v>25.478999999999999</v>
+        <v>24.478999999999999</v>
       </c>
       <c r="C24">
         <v>38.145000000000003</v>
@@ -2867,7 +3050,7 @@
         <v>3.0640000000000001</v>
       </c>
       <c r="N24">
-        <v>5.8250000000000002</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="O24">
         <v>8.5220000000000002</v>
@@ -2880,12 +3063,12 @@
       </c>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13.573</v>
+        <v>12.031000000000001</v>
       </c>
       <c r="B25">
-        <v>25.526</v>
+        <v>24.526</v>
       </c>
       <c r="C25">
         <v>38.152999999999999</v>
@@ -2915,7 +3098,7 @@
         <v>3.0640000000000001</v>
       </c>
       <c r="N25">
-        <v>5.7690000000000001</v>
+        <v>5.9690000000000003</v>
       </c>
       <c r="O25">
         <v>8.4979999999999993</v>
@@ -2927,12 +3110,12 @@
         <v>13.988</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>13.573</v>
+        <v>12.108000000000001</v>
       </c>
       <c r="B26">
-        <v>25.48</v>
+        <v>24.48</v>
       </c>
       <c r="C26">
         <v>38.25</v>
@@ -2962,7 +3145,7 @@
         <v>3.07</v>
       </c>
       <c r="N26">
-        <v>5.7930000000000001</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O26">
         <v>8.5229999999999997</v>
@@ -2974,12 +3157,12 @@
         <v>14.051</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13.573</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="B27">
-        <v>25.478000000000002</v>
+        <v>24.478000000000002</v>
       </c>
       <c r="C27">
         <v>38.149000000000001</v>
@@ -3009,7 +3192,7 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="N27">
-        <v>5.7839999999999998</v>
+        <v>5.9939999999999998</v>
       </c>
       <c r="O27">
         <v>8.49</v>
@@ -3026,12 +3209,12 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>13.573</v>
+        <v>12.103999999999999</v>
       </c>
       <c r="B28">
-        <v>25.460999999999999</v>
+        <v>24.460999999999999</v>
       </c>
       <c r="C28">
         <v>38.152999999999999</v>
@@ -3061,7 +3244,7 @@
         <v>3.0830000000000002</v>
       </c>
       <c r="N28">
-        <v>5.8250000000000002</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="O28">
         <v>8.4930000000000003</v>
@@ -3082,12 +3265,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>13.573</v>
+        <v>12.387</v>
       </c>
       <c r="B29">
-        <v>25.556999999999999</v>
+        <v>24.556999999999999</v>
       </c>
       <c r="C29">
         <v>38.128</v>
@@ -3117,7 +3300,7 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="N29">
-        <v>5.8040000000000003</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="O29">
         <v>8.4740000000000002</v>
@@ -3133,7 +3316,7 @@
       </c>
       <c r="T29">
         <f>U5</f>
-        <v>13.573000000000013</v>
+        <v>12.305690000000002</v>
       </c>
       <c r="U29">
         <f>V5</f>
@@ -3141,15 +3324,15 @@
       </c>
       <c r="V29">
         <f>W5</f>
-        <v>3.0732499999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.0903279999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13.573</v>
+        <v>12.281000000000001</v>
       </c>
       <c r="B30">
-        <v>25.509</v>
+        <v>24.509</v>
       </c>
       <c r="C30">
         <v>38.052999999999997</v>
@@ -3179,7 +3362,7 @@
         <v>3.0590000000000002</v>
       </c>
       <c r="N30">
-        <v>5.8630000000000004</v>
+        <v>5.9630000000000001</v>
       </c>
       <c r="O30">
         <v>8.4719999999999995</v>
@@ -3195,7 +3378,7 @@
       </c>
       <c r="T30">
         <f>U9</f>
-        <v>25.447459999999989</v>
+        <v>24.441839999999988</v>
       </c>
       <c r="U30">
         <f>V9</f>
@@ -3203,15 +3386,15 @@
       </c>
       <c r="V30">
         <f>W9</f>
-        <v>5.8080300000000022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.9212099999999976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13.573</v>
+        <v>12.29</v>
       </c>
       <c r="B31">
-        <v>25.452999999999999</v>
+        <v>24.452999999999999</v>
       </c>
       <c r="C31">
         <v>38.225000000000001</v>
@@ -3241,7 +3424,7 @@
         <v>3.0659999999999998</v>
       </c>
       <c r="N31">
-        <v>5.8120000000000003</v>
+        <v>5.9119999999999999</v>
       </c>
       <c r="O31">
         <v>8.5079999999999991</v>
@@ -3257,7 +3440,7 @@
       </c>
       <c r="T31">
         <f>U13</f>
-        <v>37.806550000000001</v>
+        <v>37.746549999999999</v>
       </c>
       <c r="U31">
         <f>V13</f>
@@ -3268,12 +3451,12 @@
         <v>8.4887599999999974</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13.573</v>
+        <v>12.577</v>
       </c>
       <c r="B32">
-        <v>25.527000000000001</v>
+        <v>24.527000000000001</v>
       </c>
       <c r="C32">
         <v>38.133000000000003</v>
@@ -3303,7 +3486,7 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="N32">
-        <v>5.8159999999999998</v>
+        <v>5.9160000000000004</v>
       </c>
       <c r="O32">
         <v>8.4909999999999997</v>
@@ -3332,10 +3515,10 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13.573</v>
+        <v>12.545</v>
       </c>
       <c r="B33">
-        <v>25.46</v>
+        <v>24.46</v>
       </c>
       <c r="C33">
         <v>38.192999999999998</v>
@@ -3365,7 +3548,7 @@
         <v>3.0640000000000001</v>
       </c>
       <c r="N33">
-        <v>5.8250000000000002</v>
+        <v>5.96</v>
       </c>
       <c r="O33">
         <v>8.4740000000000002</v>
@@ -3381,7 +3564,7 @@
       </c>
       <c r="T33">
         <f>U21</f>
-        <v>61.765770000000003</v>
+        <v>61.74577</v>
       </c>
       <c r="U33">
         <f>V21</f>
@@ -3394,10 +3577,10 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13.573</v>
+        <v>12.523</v>
       </c>
       <c r="B34">
-        <v>25.481999999999999</v>
+        <v>24.481999999999999</v>
       </c>
       <c r="C34">
         <v>38.244999999999997</v>
@@ -3427,7 +3610,7 @@
         <v>3.0539999999999998</v>
       </c>
       <c r="N34">
-        <v>5.7949999999999999</v>
+        <v>5.8949999999999996</v>
       </c>
       <c r="O34">
         <v>8.4849999999999994</v>
@@ -3441,10 +3624,10 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13.573</v>
+        <v>12.429</v>
       </c>
       <c r="B35">
-        <v>25.504999999999999</v>
+        <v>24.504999999999999</v>
       </c>
       <c r="C35">
         <v>38.158000000000001</v>
@@ -3474,7 +3657,7 @@
         <v>3.0990000000000002</v>
       </c>
       <c r="N35">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="O35">
         <v>8.4689999999999994</v>
@@ -3488,10 +3671,10 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13.573</v>
+        <v>12.298999999999999</v>
       </c>
       <c r="B36">
-        <v>25.477</v>
+        <v>24.477</v>
       </c>
       <c r="C36">
         <v>38.097999999999999</v>
@@ -3521,7 +3704,7 @@
         <v>3.0710000000000002</v>
       </c>
       <c r="N36">
-        <v>5.819</v>
+        <v>5.9989999999999997</v>
       </c>
       <c r="O36">
         <v>8.4890000000000008</v>
@@ -3535,10 +3718,10 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13.573</v>
+        <v>12.333</v>
       </c>
       <c r="B37">
-        <v>25.533000000000001</v>
+        <v>24.533000000000001</v>
       </c>
       <c r="C37">
         <v>38.158000000000001</v>
@@ -3568,7 +3751,7 @@
         <v>3.0430000000000001</v>
       </c>
       <c r="N37">
-        <v>5.8019999999999996</v>
+        <v>5.9020000000000001</v>
       </c>
       <c r="O37">
         <v>8.4939999999999998</v>
@@ -3582,10 +3765,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13.573</v>
+        <v>12.333</v>
       </c>
       <c r="B38">
-        <v>25.509</v>
+        <v>24.509</v>
       </c>
       <c r="C38">
         <v>38.146000000000001</v>
@@ -3615,7 +3798,7 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="N38">
-        <v>5.7619999999999996</v>
+        <v>5.8620000000000001</v>
       </c>
       <c r="O38">
         <v>8.5129999999999999</v>
@@ -3629,10 +3812,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13.573</v>
+        <v>12.243</v>
       </c>
       <c r="B39">
-        <v>25.497</v>
+        <v>24.497</v>
       </c>
       <c r="C39">
         <v>38.055999999999997</v>
@@ -3662,7 +3845,7 @@
         <v>3.07</v>
       </c>
       <c r="N39">
-        <v>5.8609999999999998</v>
+        <v>5.9610000000000003</v>
       </c>
       <c r="O39">
         <v>8.4719999999999995</v>
@@ -3676,10 +3859,10 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13.573</v>
+        <v>12.368</v>
       </c>
       <c r="B40">
-        <v>25.488</v>
+        <v>24.488</v>
       </c>
       <c r="C40">
         <v>38.204999999999998</v>
@@ -3709,7 +3892,7 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="N40">
-        <v>5.7839999999999998</v>
+        <v>5.8940000000000001</v>
       </c>
       <c r="O40">
         <v>8.4540000000000006</v>
@@ -3723,10 +3906,10 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13.573</v>
+        <v>12.5</v>
       </c>
       <c r="B41">
-        <v>25.515999999999998</v>
+        <v>24.515999999999998</v>
       </c>
       <c r="C41">
         <v>37.881</v>
@@ -3756,7 +3939,7 @@
         <v>3.077</v>
       </c>
       <c r="N41">
-        <v>5.7859999999999996</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="O41">
         <v>8.4649999999999999</v>
@@ -3770,10 +3953,10 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>13.573</v>
+        <v>12.314</v>
       </c>
       <c r="B42">
-        <v>25.495000000000001</v>
+        <v>24.495000000000001</v>
       </c>
       <c r="C42">
         <v>37.703000000000003</v>
@@ -3803,7 +3986,7 @@
         <v>3.07</v>
       </c>
       <c r="N42">
-        <v>5.7930000000000001</v>
+        <v>5.8929999999999998</v>
       </c>
       <c r="O42">
         <v>8.4819999999999993</v>
@@ -3817,10 +4000,10 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13.573</v>
+        <v>12.409000000000001</v>
       </c>
       <c r="B43">
-        <v>25.541</v>
+        <v>24.541</v>
       </c>
       <c r="C43">
         <v>37.408999999999999</v>
@@ -3850,7 +4033,7 @@
         <v>3.0609999999999999</v>
       </c>
       <c r="N43">
-        <v>5.7990000000000004</v>
+        <v>5.9989999999999997</v>
       </c>
       <c r="O43">
         <v>8.4969999999999999</v>
@@ -3864,10 +4047,10 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13.573</v>
+        <v>12.51</v>
       </c>
       <c r="B44">
-        <v>25.492999999999999</v>
+        <v>24.492999999999999</v>
       </c>
       <c r="C44">
         <v>37.262999999999998</v>
@@ -3897,7 +4080,7 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="N44">
-        <v>5.85</v>
+        <v>5.95</v>
       </c>
       <c r="O44">
         <v>8.4760000000000009</v>
@@ -3911,10 +4094,10 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13.573</v>
+        <v>12.492000000000001</v>
       </c>
       <c r="B45">
-        <v>25.504999999999999</v>
+        <v>24.504999999999999</v>
       </c>
       <c r="C45">
         <v>37.271000000000001</v>
@@ -3944,7 +4127,7 @@
         <v>3.0529999999999999</v>
       </c>
       <c r="N45">
-        <v>5.8259999999999996</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="O45">
         <v>8.4710000000000001</v>
@@ -3958,10 +4141,10 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13.573</v>
+        <v>12.388</v>
       </c>
       <c r="B46">
-        <v>25.492999999999999</v>
+        <v>24.492999999999999</v>
       </c>
       <c r="C46">
         <v>37.255000000000003</v>
@@ -3991,7 +4174,7 @@
         <v>3.052</v>
       </c>
       <c r="N46">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="O46">
         <v>8.484</v>
@@ -4005,10 +4188,10 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13.573</v>
+        <v>12.314</v>
       </c>
       <c r="B47">
-        <v>25.451000000000001</v>
+        <v>24.451000000000001</v>
       </c>
       <c r="C47">
         <v>37.287999999999997</v>
@@ -4038,7 +4221,7 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="N47">
-        <v>5.7880000000000003</v>
+        <v>5.899</v>
       </c>
       <c r="O47">
         <v>8.4930000000000003</v>
@@ -4052,10 +4235,10 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>13.573</v>
+        <v>12.666</v>
       </c>
       <c r="B48">
-        <v>25.475000000000001</v>
+        <v>24.475000000000001</v>
       </c>
       <c r="C48">
         <v>37.332000000000001</v>
@@ -4085,7 +4268,7 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="N48">
-        <v>5.8310000000000004</v>
+        <v>5.931</v>
       </c>
       <c r="O48">
         <v>8.4770000000000003</v>
@@ -4099,10 +4282,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>13.573</v>
+        <v>12.452999999999999</v>
       </c>
       <c r="B49">
-        <v>25.498999999999999</v>
+        <v>24.498999999999999</v>
       </c>
       <c r="C49">
         <v>37.271999999999998</v>
@@ -4129,10 +4312,10 @@
         <v>15.792</v>
       </c>
       <c r="M49">
-        <v>3.073</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="N49">
-        <v>5.8040000000000003</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="O49">
         <v>8.5020000000000007</v>
@@ -4146,10 +4329,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>13.573</v>
+        <v>12.42</v>
       </c>
       <c r="B50">
-        <v>25.457000000000001</v>
+        <v>24.457000000000001</v>
       </c>
       <c r="C50">
         <v>37.265999999999998</v>
@@ -4176,10 +4359,10 @@
         <v>15.77</v>
       </c>
       <c r="M50">
-        <v>3.0579999999999998</v>
+        <v>3.0657999999999999</v>
       </c>
       <c r="N50">
-        <v>5.8250000000000002</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="O50">
         <v>8.4619999999999997</v>
@@ -4193,10 +4376,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13.573</v>
+        <v>12.391</v>
       </c>
       <c r="B51">
-        <v>25.53</v>
+        <v>24.12</v>
       </c>
       <c r="C51">
         <v>37.273000000000003</v>
@@ -4226,7 +4409,7 @@
         <v>3.0609999999999999</v>
       </c>
       <c r="N51">
-        <v>5.8090000000000002</v>
+        <v>5.9089999999999998</v>
       </c>
       <c r="O51">
         <v>8.4670000000000005</v>
@@ -4240,10 +4423,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>13.573</v>
+        <v>12.4</v>
       </c>
       <c r="B52">
-        <v>25.472000000000001</v>
+        <v>24.32</v>
       </c>
       <c r="C52">
         <v>37.335000000000001</v>
@@ -4273,7 +4456,7 @@
         <v>3.0619999999999998</v>
       </c>
       <c r="N52">
-        <v>5.7830000000000004</v>
+        <v>5.8929999999999998</v>
       </c>
       <c r="O52">
         <v>8.5009999999999994</v>
@@ -4287,10 +4470,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>13.573</v>
+        <v>12.366</v>
       </c>
       <c r="B53">
-        <v>25.548999999999999</v>
+        <v>24.548999999999999</v>
       </c>
       <c r="C53">
         <v>37.323</v>
@@ -4320,7 +4503,7 @@
         <v>3.0720000000000001</v>
       </c>
       <c r="N53">
-        <v>5.7960000000000003</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="O53">
         <v>8.4749999999999996</v>
@@ -4334,10 +4517,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>13.573</v>
+        <v>12.516</v>
       </c>
       <c r="B54">
-        <v>25.498000000000001</v>
+        <v>24.498000000000001</v>
       </c>
       <c r="C54">
         <v>37.329000000000001</v>
@@ -4367,7 +4550,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="N54">
-        <v>5.7750000000000004</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="O54">
         <v>8.4499999999999993</v>
@@ -4381,10 +4564,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>13.573</v>
+        <v>12.414</v>
       </c>
       <c r="B55">
-        <v>25.460999999999999</v>
+        <v>24.460999999999999</v>
       </c>
       <c r="C55">
         <v>37.326999999999998</v>
@@ -4414,7 +4597,7 @@
         <v>3.0670000000000002</v>
       </c>
       <c r="N55">
-        <v>5.798</v>
+        <v>5.899</v>
       </c>
       <c r="O55">
         <v>8.4649999999999999</v>
@@ -4428,10 +4611,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>13.573</v>
+        <v>12.359</v>
       </c>
       <c r="B56">
-        <v>25.513999999999999</v>
+        <v>24.513999999999999</v>
       </c>
       <c r="C56">
         <v>37.360999999999997</v>
@@ -4461,7 +4644,7 @@
         <v>3.0419999999999998</v>
       </c>
       <c r="N56">
-        <v>5.7839999999999998</v>
+        <v>5.8940000000000001</v>
       </c>
       <c r="O56">
         <v>8.5530000000000008</v>
@@ -4475,10 +4658,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>13.573</v>
+        <v>12.568</v>
       </c>
       <c r="B57">
-        <v>25.484999999999999</v>
+        <v>24.484999999999999</v>
       </c>
       <c r="C57">
         <v>37.317</v>
@@ -4508,7 +4691,7 @@
         <v>3.09</v>
       </c>
       <c r="N57">
-        <v>5.79</v>
+        <v>5.99</v>
       </c>
       <c r="O57">
         <v>8.4740000000000002</v>
@@ -4522,10 +4705,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>13.573</v>
+        <v>12.544</v>
       </c>
       <c r="B58">
-        <v>25.478000000000002</v>
+        <v>24.478000000000002</v>
       </c>
       <c r="C58">
         <v>37.747999999999998</v>
@@ -4555,7 +4738,7 @@
         <v>3.069</v>
       </c>
       <c r="N58">
-        <v>5.7560000000000002</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="O58">
         <v>8.468</v>
@@ -4569,10 +4752,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>13.573</v>
+        <v>12.417999999999999</v>
       </c>
       <c r="B59">
-        <v>25.498999999999999</v>
+        <v>24.498999999999999</v>
       </c>
       <c r="C59">
         <v>37.634</v>
@@ -4602,7 +4785,7 @@
         <v>3.0819999999999999</v>
       </c>
       <c r="N59">
-        <v>5.8029999999999999</v>
+        <v>5.9029999999999996</v>
       </c>
       <c r="O59">
         <v>8.4969999999999999</v>
@@ -4616,10 +4799,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>13.573</v>
+        <v>12.536</v>
       </c>
       <c r="B60">
-        <v>25.472999999999999</v>
+        <v>24.472999999999999</v>
       </c>
       <c r="C60">
         <v>37.68</v>
@@ -4649,7 +4832,7 @@
         <v>3.052</v>
       </c>
       <c r="N60">
-        <v>5.8179999999999996</v>
+        <v>5.9189999999999996</v>
       </c>
       <c r="O60">
         <v>8.5129999999999999</v>
@@ -4663,10 +4846,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>13.573</v>
+        <v>12.313000000000001</v>
       </c>
       <c r="B61">
-        <v>25.48</v>
+        <v>24.48</v>
       </c>
       <c r="C61">
         <v>37.677999999999997</v>
@@ -4696,7 +4879,7 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="N61">
-        <v>5.8239999999999998</v>
+        <v>5.9240000000000004</v>
       </c>
       <c r="O61">
         <v>8.4809999999999999</v>
@@ -4710,10 +4893,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>13.573</v>
+        <v>12.503</v>
       </c>
       <c r="B62">
-        <v>25.478000000000002</v>
+        <v>24.478000000000002</v>
       </c>
       <c r="C62">
         <v>37.673000000000002</v>
@@ -4743,7 +4926,7 @@
         <v>3.08</v>
       </c>
       <c r="N62">
-        <v>5.8019999999999996</v>
+        <v>5.9020000000000001</v>
       </c>
       <c r="O62">
         <v>8.4619999999999997</v>
@@ -4757,10 +4940,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13.573</v>
+        <v>12.323</v>
       </c>
       <c r="B63">
-        <v>25.454000000000001</v>
+        <v>24.454000000000001</v>
       </c>
       <c r="C63">
         <v>37.701999999999998</v>
@@ -4790,7 +4973,7 @@
         <v>3.08</v>
       </c>
       <c r="N63">
-        <v>5.8120000000000003</v>
+        <v>5.9119999999999999</v>
       </c>
       <c r="O63">
         <v>8.49</v>
@@ -4804,10 +4987,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>13.573</v>
+        <v>12.420999999999999</v>
       </c>
       <c r="B64">
-        <v>25.446999999999999</v>
+        <v>24.446999999999999</v>
       </c>
       <c r="C64">
         <v>37.654000000000003</v>
@@ -4834,10 +5017,10 @@
         <v>15.773999999999999</v>
       </c>
       <c r="M64">
-        <v>3.0569999999999999</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="N64">
-        <v>5.8209999999999997</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="O64">
         <v>8.4659999999999993</v>
@@ -4851,10 +5034,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>13.573</v>
+        <v>12.398999999999999</v>
       </c>
       <c r="B65">
-        <v>25.315999999999999</v>
+        <v>24.315999999999999</v>
       </c>
       <c r="C65">
         <v>37.354999999999997</v>
@@ -4884,7 +5067,7 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="N65">
-        <v>5.7779999999999996</v>
+        <v>5.9889999999999999</v>
       </c>
       <c r="O65">
         <v>8.4510000000000005</v>
@@ -4898,10 +5081,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>13.573</v>
+        <v>12.683</v>
       </c>
       <c r="B66">
-        <v>25.12</v>
+        <v>24.12</v>
       </c>
       <c r="C66">
         <v>37.313000000000002</v>
@@ -4931,7 +5114,7 @@
         <v>3.0619999999999998</v>
       </c>
       <c r="N66">
-        <v>5.8029999999999999</v>
+        <v>5.9029999999999996</v>
       </c>
       <c r="O66">
         <v>8.4719999999999995</v>
@@ -4945,10 +5128,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>13.573</v>
+        <v>12.472</v>
       </c>
       <c r="B67">
-        <v>25.108000000000001</v>
+        <v>24.108000000000001</v>
       </c>
       <c r="C67">
         <v>37.368000000000002</v>
@@ -4978,7 +5161,7 @@
         <v>3.07</v>
       </c>
       <c r="N67">
-        <v>5.7759999999999998</v>
+        <v>5.8860000000000001</v>
       </c>
       <c r="O67">
         <v>8.5139999999999993</v>
@@ -4992,10 +5175,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>13.573</v>
+        <v>12.246</v>
       </c>
       <c r="B68">
-        <v>25.125</v>
+        <v>24.125</v>
       </c>
       <c r="C68">
         <v>37.445</v>
@@ -5025,7 +5208,7 @@
         <v>3.069</v>
       </c>
       <c r="N68">
-        <v>5.8209999999999997</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="O68">
         <v>8.4420000000000002</v>
@@ -5039,10 +5222,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>13.573</v>
+        <v>12.215</v>
       </c>
       <c r="B69">
-        <v>25.099</v>
+        <v>24.099</v>
       </c>
       <c r="C69">
         <v>37.375</v>
@@ -5072,7 +5255,7 @@
         <v>3.06</v>
       </c>
       <c r="N69">
-        <v>5.7960000000000003</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="O69">
         <v>8.4459999999999997</v>
@@ -5086,10 +5269,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>13.573</v>
+        <v>12.430999999999999</v>
       </c>
       <c r="B70">
-        <v>25.100999999999999</v>
+        <v>24.100999999999999</v>
       </c>
       <c r="C70">
         <v>37.337000000000003</v>
@@ -5119,7 +5302,7 @@
         <v>3.0910000000000002</v>
       </c>
       <c r="N70">
-        <v>5.8259999999999996</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="O70">
         <v>8.4559999999999995</v>
@@ -5133,10 +5316,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>13.573</v>
+        <v>12.259</v>
       </c>
       <c r="B71">
-        <v>25.114999999999998</v>
+        <v>24.114999999999998</v>
       </c>
       <c r="C71">
         <v>37.661000000000001</v>
@@ -5166,7 +5349,7 @@
         <v>3.0750000000000002</v>
       </c>
       <c r="N71">
-        <v>5.78</v>
+        <v>5.99</v>
       </c>
       <c r="O71">
         <v>8.4730000000000008</v>
@@ -5180,10 +5363,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>13.573</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="B72">
-        <v>25.135999999999999</v>
+        <v>24.135999999999999</v>
       </c>
       <c r="C72">
         <v>37.674999999999997</v>
@@ -5213,7 +5396,7 @@
         <v>3.1070000000000002</v>
       </c>
       <c r="N72">
-        <v>5.8019999999999996</v>
+        <v>5.9020000000000001</v>
       </c>
       <c r="O72">
         <v>8.4480000000000004</v>
@@ -5227,10 +5410,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>13.573</v>
+        <v>12.569000000000001</v>
       </c>
       <c r="B73">
-        <v>25.11</v>
+        <v>24.11</v>
       </c>
       <c r="C73">
         <v>37.738999999999997</v>
@@ -5260,7 +5443,7 @@
         <v>3.08</v>
       </c>
       <c r="N73">
-        <v>5.8159999999999998</v>
+        <v>5.9160000000000004</v>
       </c>
       <c r="O73">
         <v>8.4920000000000009</v>
@@ -5274,10 +5457,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>13.573</v>
+        <v>12.234999999999999</v>
       </c>
       <c r="B74">
-        <v>25.122</v>
+        <v>24.122</v>
       </c>
       <c r="C74">
         <v>37.713000000000001</v>
@@ -5307,7 +5490,7 @@
         <v>3.0830000000000002</v>
       </c>
       <c r="N74">
-        <v>5.8280000000000003</v>
+        <v>5.9290000000000003</v>
       </c>
       <c r="O74">
         <v>8.4489999999999998</v>
@@ -5321,10 +5504,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>13.573</v>
+        <v>12.189</v>
       </c>
       <c r="B75">
-        <v>25.116</v>
+        <v>24.116</v>
       </c>
       <c r="C75">
         <v>37.704999999999998</v>
@@ -5354,7 +5537,7 @@
         <v>3.093</v>
       </c>
       <c r="N75">
-        <v>5.8010000000000002</v>
+        <v>5.9009999999999998</v>
       </c>
       <c r="O75">
         <v>8.4990000000000006</v>
@@ -5368,10 +5551,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>13.573</v>
+        <v>12.154999999999999</v>
       </c>
       <c r="B76">
-        <v>25.094999999999999</v>
+        <v>24.094999999999999</v>
       </c>
       <c r="C76">
         <v>37.823</v>
@@ -5401,7 +5584,7 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="N76">
-        <v>5.77</v>
+        <v>5.88</v>
       </c>
       <c r="O76">
         <v>8.4570000000000007</v>
@@ -5415,10 +5598,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13.573</v>
+        <v>12.217000000000001</v>
       </c>
       <c r="B77">
-        <v>25.452000000000002</v>
+        <v>24.452000000000002</v>
       </c>
       <c r="C77">
         <v>37.720999999999997</v>
@@ -5448,7 +5631,7 @@
         <v>3.09</v>
       </c>
       <c r="N77">
-        <v>5.8680000000000003</v>
+        <v>5.9690000000000003</v>
       </c>
       <c r="O77">
         <v>8.4580000000000002</v>
@@ -5462,10 +5645,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>13.573</v>
+        <v>12.265000000000001</v>
       </c>
       <c r="B78">
-        <v>25.478000000000002</v>
+        <v>24.478000000000002</v>
       </c>
       <c r="C78">
         <v>37.726999999999997</v>
@@ -5495,7 +5678,7 @@
         <v>3.0870000000000002</v>
       </c>
       <c r="N78">
-        <v>5.7670000000000003</v>
+        <v>5.968</v>
       </c>
       <c r="O78">
         <v>8.4710000000000001</v>
@@ -5509,10 +5692,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>13.573</v>
+        <v>12.233000000000001</v>
       </c>
       <c r="B79">
-        <v>25.478000000000002</v>
+        <v>24.478000000000002</v>
       </c>
       <c r="C79">
         <v>37.726999999999997</v>
@@ -5542,7 +5725,7 @@
         <v>3.133</v>
       </c>
       <c r="N79">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="O79">
         <v>8.4649999999999999</v>
@@ -5556,10 +5739,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>13.573</v>
+        <v>12.303000000000001</v>
       </c>
       <c r="B80">
-        <v>25.486000000000001</v>
+        <v>24.486000000000001</v>
       </c>
       <c r="C80">
         <v>37.68</v>
@@ -5589,7 +5772,7 @@
         <v>3.0979999999999999</v>
       </c>
       <c r="N80">
-        <v>5.8019999999999996</v>
+        <v>5.952</v>
       </c>
       <c r="O80">
         <v>8.4570000000000007</v>
@@ -5603,10 +5786,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>13.573</v>
+        <v>12.471</v>
       </c>
       <c r="B81">
-        <v>25.509</v>
+        <v>24.509</v>
       </c>
       <c r="C81">
         <v>37.597000000000001</v>
@@ -5636,7 +5819,7 @@
         <v>3.077</v>
       </c>
       <c r="N81">
-        <v>5.8330000000000002</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="O81">
         <v>8.4960000000000004</v>
@@ -5650,10 +5833,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13.573</v>
+        <v>12.372999999999999</v>
       </c>
       <c r="B82">
-        <v>25.454000000000001</v>
+        <v>24.454000000000001</v>
       </c>
       <c r="C82">
         <v>37.552999999999997</v>
@@ -5683,7 +5866,7 @@
         <v>3.081</v>
       </c>
       <c r="N82">
-        <v>5.8090000000000002</v>
+        <v>5.9089999999999998</v>
       </c>
       <c r="O82">
         <v>8.4600000000000009</v>
@@ -5697,10 +5880,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13.573</v>
+        <v>12.523999999999999</v>
       </c>
       <c r="B83">
-        <v>25.503</v>
+        <v>24.503</v>
       </c>
       <c r="C83">
         <v>37.338000000000001</v>
@@ -5730,7 +5913,7 @@
         <v>3.08</v>
       </c>
       <c r="N83">
-        <v>5.819</v>
+        <v>5.9189999999999996</v>
       </c>
       <c r="O83">
         <v>8.4779999999999998</v>
@@ -5744,10 +5927,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>13.573</v>
+        <v>12.263999999999999</v>
       </c>
       <c r="B84">
-        <v>25.477</v>
+        <v>24.477</v>
       </c>
       <c r="C84">
         <v>37.395000000000003</v>
@@ -5777,7 +5960,7 @@
         <v>3.0760000000000001</v>
       </c>
       <c r="N84">
-        <v>5.8680000000000003</v>
+        <v>5.9690000000000003</v>
       </c>
       <c r="O84">
         <v>8.4909999999999997</v>
@@ -5791,10 +5974,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>13.573</v>
+        <v>12.327999999999999</v>
       </c>
       <c r="B85">
-        <v>25.451000000000001</v>
+        <v>24.451000000000001</v>
       </c>
       <c r="C85">
         <v>37.4</v>
@@ -5821,10 +6004,10 @@
         <v>15.77</v>
       </c>
       <c r="M85">
-        <v>3.0590000000000002</v>
+        <v>3.4590000000000001</v>
       </c>
       <c r="N85">
-        <v>5.7960000000000003</v>
+        <v>5.9960000000000004</v>
       </c>
       <c r="O85">
         <v>8.5060000000000002</v>
@@ -5838,10 +6021,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>13.573</v>
+        <v>12.292999999999999</v>
       </c>
       <c r="B86">
-        <v>25.486000000000001</v>
+        <v>24.486000000000001</v>
       </c>
       <c r="C86">
         <v>37.332999999999998</v>
@@ -5868,10 +6051,10 @@
         <v>15.754</v>
       </c>
       <c r="M86">
-        <v>3.0659999999999998</v>
+        <v>3.766</v>
       </c>
       <c r="N86">
-        <v>5.8029999999999999</v>
+        <v>5.9029999999999996</v>
       </c>
       <c r="O86">
         <v>8.5050000000000008</v>
@@ -5885,10 +6068,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>13.573</v>
+        <v>12.273</v>
       </c>
       <c r="B87">
-        <v>25.466999999999999</v>
+        <v>24.466999999999999</v>
       </c>
       <c r="C87">
         <v>37.378</v>
@@ -5918,7 +6101,7 @@
         <v>3.1059999999999999</v>
       </c>
       <c r="N87">
-        <v>5.7649999999999997</v>
+        <v>5.8650000000000002</v>
       </c>
       <c r="O87">
         <v>8.4710000000000001</v>
@@ -5932,10 +6115,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>13.573</v>
+        <v>12.266999999999999</v>
       </c>
       <c r="B88">
-        <v>25.49</v>
+        <v>24.49</v>
       </c>
       <c r="C88">
         <v>37.359000000000002</v>
@@ -5965,7 +6148,7 @@
         <v>3.1040000000000001</v>
       </c>
       <c r="N88">
-        <v>5.7969999999999997</v>
+        <v>5.8979999999999997</v>
       </c>
       <c r="O88">
         <v>8.4939999999999998</v>
@@ -5979,10 +6162,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>13.573</v>
+        <v>12.218999999999999</v>
       </c>
       <c r="B89">
-        <v>25.491</v>
+        <v>24.491</v>
       </c>
       <c r="C89">
         <v>37.68</v>
@@ -6012,7 +6195,7 @@
         <v>3.0819999999999999</v>
       </c>
       <c r="N89">
-        <v>5.774</v>
+        <v>5.8840000000000003</v>
       </c>
       <c r="O89">
         <v>8.4710000000000001</v>
@@ -6026,10 +6209,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>13.573</v>
+        <v>12.167999999999999</v>
       </c>
       <c r="B90">
-        <v>25.460999999999999</v>
+        <v>24.460999999999999</v>
       </c>
       <c r="C90">
         <v>37.686999999999998</v>
@@ -6059,7 +6242,7 @@
         <v>3.048</v>
       </c>
       <c r="N90">
-        <v>5.7839999999999998</v>
+        <v>5.9939999999999998</v>
       </c>
       <c r="O90">
         <v>8.4499999999999993</v>
@@ -6073,10 +6256,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>13.573</v>
+        <v>12.236000000000001</v>
       </c>
       <c r="B91">
-        <v>25.457000000000001</v>
+        <v>24.457000000000001</v>
       </c>
       <c r="C91">
         <v>37.673999999999999</v>
@@ -6106,7 +6289,7 @@
         <v>3.0630000000000002</v>
       </c>
       <c r="N91">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O91">
         <v>8.48</v>
@@ -6120,10 +6303,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>13.573</v>
+        <v>12.236000000000001</v>
       </c>
       <c r="B92">
-        <v>25.459</v>
+        <v>24.459</v>
       </c>
       <c r="C92">
         <v>37.677999999999997</v>
@@ -6153,7 +6336,7 @@
         <v>3.081</v>
       </c>
       <c r="N92">
-        <v>5.7930000000000001</v>
+        <v>5.8929999999999998</v>
       </c>
       <c r="O92">
         <v>8.5920000000000005</v>
@@ -6167,10 +6350,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>13.573</v>
+        <v>12.154999999999999</v>
       </c>
       <c r="B93">
-        <v>25.445</v>
+        <v>24.445</v>
       </c>
       <c r="C93">
         <v>37.78</v>
@@ -6200,7 +6383,7 @@
         <v>3.0609999999999999</v>
       </c>
       <c r="N93">
-        <v>5.8010000000000002</v>
+        <v>5.9009999999999998</v>
       </c>
       <c r="O93">
         <v>8.4819999999999993</v>
@@ -6214,10 +6397,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>13.573</v>
+        <v>12.217000000000001</v>
       </c>
       <c r="B94">
-        <v>25.483000000000001</v>
+        <v>24.483000000000001</v>
       </c>
       <c r="C94">
         <v>37.762</v>
@@ -6247,7 +6430,7 @@
         <v>3.0630000000000002</v>
       </c>
       <c r="N94">
-        <v>5.8040000000000003</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="O94">
         <v>8.484</v>
@@ -6261,10 +6444,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>13.573</v>
+        <v>12.265000000000001</v>
       </c>
       <c r="B95">
-        <v>25.460999999999999</v>
+        <v>24.460999999999999</v>
       </c>
       <c r="C95">
         <v>37.707999999999998</v>
@@ -6294,7 +6477,7 @@
         <v>3.0539999999999998</v>
       </c>
       <c r="N95">
-        <v>5.827</v>
+        <v>5.9279999999999999</v>
       </c>
       <c r="O95">
         <v>8.5139999999999993</v>
@@ -6308,10 +6491,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>13.573</v>
+        <v>12.233000000000001</v>
       </c>
       <c r="B96">
-        <v>25.536000000000001</v>
+        <v>24.536000000000001</v>
       </c>
       <c r="C96">
         <v>37.686999999999998</v>
@@ -6341,7 +6524,7 @@
         <v>3.0670000000000002</v>
       </c>
       <c r="N96">
-        <v>5.843</v>
+        <v>5.9429999999999996</v>
       </c>
       <c r="O96">
         <v>8.4830000000000005</v>
@@ -6355,10 +6538,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>13.573</v>
+        <v>12.303000000000001</v>
       </c>
       <c r="B97">
-        <v>25.451000000000001</v>
+        <v>24.451000000000001</v>
       </c>
       <c r="C97">
         <v>37.722999999999999</v>
@@ -6388,7 +6571,7 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="N97">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="O97">
         <v>8.4770000000000003</v>
@@ -6402,10 +6585,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>13.573</v>
+        <v>12.471</v>
       </c>
       <c r="B98">
-        <v>25.439</v>
+        <v>24.439</v>
       </c>
       <c r="C98">
         <v>37.692</v>
@@ -6435,7 +6618,7 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="N98">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O98">
         <v>8.484</v>
@@ -6449,10 +6632,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>13.573</v>
+        <v>12.266999999999999</v>
       </c>
       <c r="B99">
-        <v>25.457000000000001</v>
+        <v>24.457000000000001</v>
       </c>
       <c r="C99">
         <v>37.590000000000003</v>
@@ -6482,7 +6665,7 @@
         <v>3.0569999999999999</v>
       </c>
       <c r="N99">
-        <v>5.8630000000000004</v>
+        <v>5.9630000000000001</v>
       </c>
       <c r="O99">
         <v>8.4749999999999996</v>
@@ -6496,10 +6679,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>13.573</v>
+        <v>12.218999999999999</v>
       </c>
       <c r="B100">
-        <v>25.497</v>
+        <v>24.497</v>
       </c>
       <c r="C100">
         <v>37.627000000000002</v>
@@ -6529,7 +6712,7 @@
         <v>3.0569999999999999</v>
       </c>
       <c r="N100">
-        <v>5.8159999999999998</v>
+        <v>5.9160000000000004</v>
       </c>
       <c r="O100">
         <v>8.4670000000000005</v>
@@ -6543,10 +6726,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>13.573</v>
+        <v>12.167999999999999</v>
       </c>
       <c r="B101">
-        <v>25.431000000000001</v>
+        <v>24.431000000000001</v>
       </c>
       <c r="C101">
         <v>37.667000000000002</v>
@@ -6576,7 +6759,7 @@
         <v>3.0710000000000002</v>
       </c>
       <c r="N101">
-        <v>5.8209999999999997</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="O101">
         <v>8.4949999999999992</v>
@@ -6590,10 +6773,10 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>13.573</v>
+        <v>12.236000000000001</v>
       </c>
       <c r="B102">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="C102">
         <v>37.566000000000003</v>
@@ -6623,7 +6806,7 @@
         <v>3.0470000000000002</v>
       </c>
       <c r="N102">
-        <v>5.8040000000000003</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="O102">
         <v>8.4990000000000006</v>
@@ -6637,10 +6820,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>13.573</v>
+        <v>12.233000000000001</v>
       </c>
       <c r="B103">
-        <v>25.506</v>
+        <v>24.506</v>
       </c>
       <c r="C103">
         <v>37.619999999999997</v>
@@ -6670,7 +6853,7 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="N103">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="O103">
         <v>8.4779999999999998</v>
@@ -6687,7 +6870,36 @@
     <mergeCell ref="T27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>